--- a/experiments/pg/return_discount_increment/max_rew_mlp_5x64_corr_entropy_inp_time_step_3e_4_no_norm/oracle_buffer.xlsx
+++ b/experiments/pg/return_discount_increment/max_rew_mlp_5x64_corr_entropy_inp_time_step_3e_4_no_norm/oracle_buffer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2772"/>
+  <dimension ref="A1:C2792"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36468,6 +36468,266 @@
         <v>14.97488249922571</v>
       </c>
     </row>
+    <row r="2773">
+      <c r="A2773" s="1" t="n">
+        <v>2771</v>
+      </c>
+      <c r="B2773" t="inlineStr">
+        <is>
+          <t>[6, -5, -2]</t>
+        </is>
+      </c>
+      <c r="C2773" t="n">
+        <v>14.09413295273215</v>
+      </c>
+    </row>
+    <row r="2774">
+      <c r="A2774" s="1" t="n">
+        <v>2772</v>
+      </c>
+      <c r="B2774" t="inlineStr">
+        <is>
+          <t>[4, -2, -7]</t>
+        </is>
+      </c>
+      <c r="C2774" t="n">
+        <v>14.00971842937856</v>
+      </c>
+    </row>
+    <row r="2775">
+      <c r="A2775" s="1" t="n">
+        <v>2773</v>
+      </c>
+      <c r="B2775" t="inlineStr">
+        <is>
+          <t>[-4, -2, 5]</t>
+        </is>
+      </c>
+      <c r="C2775" t="n">
+        <v>14.04246934384074</v>
+      </c>
+    </row>
+    <row r="2776">
+      <c r="A2776" s="1" t="n">
+        <v>2774</v>
+      </c>
+      <c r="B2776" t="inlineStr">
+        <is>
+          <t>[6, 7, -2]</t>
+        </is>
+      </c>
+      <c r="C2776" t="n">
+        <v>14.07790118407503</v>
+      </c>
+    </row>
+    <row r="2777">
+      <c r="A2777" s="1" t="n">
+        <v>2775</v>
+      </c>
+      <c r="B2777" t="inlineStr">
+        <is>
+          <t>[-1, -3, 6]</t>
+        </is>
+      </c>
+      <c r="C2777" t="n">
+        <v>15.0081545700103</v>
+      </c>
+    </row>
+    <row r="2778">
+      <c r="A2778" s="1" t="n">
+        <v>2776</v>
+      </c>
+      <c r="B2778" t="inlineStr">
+        <is>
+          <t>[-1, -2, 6]</t>
+        </is>
+      </c>
+      <c r="C2778" t="n">
+        <v>15.1751074320777</v>
+      </c>
+    </row>
+    <row r="2779">
+      <c r="A2779" s="1" t="n">
+        <v>2777</v>
+      </c>
+      <c r="B2779" t="inlineStr">
+        <is>
+          <t>[-3, -2, 6]</t>
+        </is>
+      </c>
+      <c r="C2779" t="n">
+        <v>14.21909732796581</v>
+      </c>
+    </row>
+    <row r="2780">
+      <c r="A2780" s="1" t="n">
+        <v>2778</v>
+      </c>
+      <c r="B2780" t="inlineStr">
+        <is>
+          <t>[0, -3, 5]</t>
+        </is>
+      </c>
+      <c r="C2780" t="n">
+        <v>15.3147368244634</v>
+      </c>
+    </row>
+    <row r="2781">
+      <c r="A2781" s="1" t="n">
+        <v>2779</v>
+      </c>
+      <c r="B2781" t="inlineStr">
+        <is>
+          <t>[7, 6, -2]</t>
+        </is>
+      </c>
+      <c r="C2781" t="n">
+        <v>14.06975517649048</v>
+      </c>
+    </row>
+    <row r="2782">
+      <c r="A2782" s="1" t="n">
+        <v>2780</v>
+      </c>
+      <c r="B2782" t="inlineStr">
+        <is>
+          <t>[-2, -3, 5]</t>
+        </is>
+      </c>
+      <c r="C2782" t="n">
+        <v>14.52879431330685</v>
+      </c>
+    </row>
+    <row r="2783">
+      <c r="A2783" s="1" t="n">
+        <v>2781</v>
+      </c>
+      <c r="B2783" t="inlineStr">
+        <is>
+          <t>[-3, -3, 6]</t>
+        </is>
+      </c>
+      <c r="C2783" t="n">
+        <v>14.08968468955818</v>
+      </c>
+    </row>
+    <row r="2784">
+      <c r="A2784" s="1" t="n">
+        <v>2782</v>
+      </c>
+      <c r="B2784" t="inlineStr">
+        <is>
+          <t>[-2, -3, 6]</t>
+        </is>
+      </c>
+      <c r="C2784" t="n">
+        <v>14.53136717712274</v>
+      </c>
+    </row>
+    <row r="2785">
+      <c r="A2785" s="1" t="n">
+        <v>2783</v>
+      </c>
+      <c r="B2785" t="inlineStr">
+        <is>
+          <t>[-1, -4, 6]</t>
+        </is>
+      </c>
+      <c r="C2785" t="n">
+        <v>15.04131883065435</v>
+      </c>
+    </row>
+    <row r="2786">
+      <c r="A2786" s="1" t="n">
+        <v>2784</v>
+      </c>
+      <c r="B2786" t="inlineStr">
+        <is>
+          <t>[-2, -3, 7]</t>
+        </is>
+      </c>
+      <c r="C2786" t="n">
+        <v>14.53862497637881</v>
+      </c>
+    </row>
+    <row r="2787">
+      <c r="A2787" s="1" t="n">
+        <v>2785</v>
+      </c>
+      <c r="B2787" t="inlineStr">
+        <is>
+          <t>[-2, -2, 6]</t>
+        </is>
+      </c>
+      <c r="C2787" t="n">
+        <v>14.57008610335564</v>
+      </c>
+    </row>
+    <row r="2788">
+      <c r="A2788" s="1" t="n">
+        <v>2786</v>
+      </c>
+      <c r="B2788" t="inlineStr">
+        <is>
+          <t>[-1, -4, 7]</t>
+        </is>
+      </c>
+      <c r="C2788" t="n">
+        <v>15.05839944264121</v>
+      </c>
+    </row>
+    <row r="2789">
+      <c r="A2789" s="1" t="n">
+        <v>2787</v>
+      </c>
+      <c r="B2789" t="inlineStr">
+        <is>
+          <t>[-2, -1, 6]</t>
+        </is>
+      </c>
+      <c r="C2789" t="n">
+        <v>15.80533435862415</v>
+      </c>
+    </row>
+    <row r="2790">
+      <c r="A2790" s="1" t="n">
+        <v>2788</v>
+      </c>
+      <c r="B2790" t="inlineStr">
+        <is>
+          <t>[1, -5, 5]</t>
+        </is>
+      </c>
+      <c r="C2790" t="n">
+        <v>15.16466893871576</v>
+      </c>
+    </row>
+    <row r="2791">
+      <c r="A2791" s="1" t="n">
+        <v>2789</v>
+      </c>
+      <c r="B2791" t="inlineStr">
+        <is>
+          <t>[7, 7, -2]</t>
+        </is>
+      </c>
+      <c r="C2791" t="n">
+        <v>14.05723684869586</v>
+      </c>
+    </row>
+    <row r="2792">
+      <c r="A2792" s="1" t="n">
+        <v>2790</v>
+      </c>
+      <c r="B2792" t="inlineStr">
+        <is>
+          <t>[6, 7, -3]</t>
+        </is>
+      </c>
+      <c r="C2792" t="n">
+        <v>14.00999727919497</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
